--- a/metadata/dataset_summary.xlsx
+++ b/metadata/dataset_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pstewarda/Documents/rprojects/hazards_prototype/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE113EA-8DE5-C049-A832-F666D8F88627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4094335-9995-944F-8414-05245B4AC9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="29840" windowHeight="31540" xr2:uid="{B8718C03-10A0-AF4D-A1AD-E71190438B4A}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="29840" windowHeight="31540" activeTab="1" xr2:uid="{B8718C03-10A0-AF4D-A1AD-E71190438B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7677AB-64A3-D04C-B925-D70EAE831243}">
   <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -1379,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61622597-2465-9F41-9448-11D67A4628B5}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
